--- a/public/assets/template-import/template-guru.xlsx
+++ b/public/assets/template-import/template-guru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3DC92F-10AA-4498-BF9E-58346052582E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F8D67-9524-4E03-BDDF-5042CCD57409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-210" yWindow="11400" windowWidth="20730" windowHeight="11040" xr2:uid="{7DB15F15-C45B-4E19-B29A-D723E79AD45E}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>TEMPAT LAHIR</t>
   </si>
   <si>
-    <t>TANGGAL LAHIR</t>
-  </si>
-  <si>
     <t>ALAMAT</t>
   </si>
   <si>
@@ -49,6 +46,10 @@
   </si>
   <si>
     <t>JENIS GTK</t>
+  </si>
+  <si>
+    <t>TANGGAL LAHIR
+(DD-MM-YYYY)</t>
   </si>
 </sst>
 </file>
@@ -114,10 +115,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,25 +442,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7538B925-BFCD-4667-AF41-1DE37A3C9832}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -467,14 +474,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
